--- a/similarities/split_global/harmonic_similarity_timestamps_188.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_188.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,726 +484,718 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:21.620000')]</t>
+          <t>('0:00:08.240000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:00:43.880000', '0:00:52.160000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+          <t>('0:00:24.280000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=53.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:42.528000')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:03.070000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:09.880000')]</t>
+          <t>('0:00:56.160000', '0:01:00.700000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:17.965212', '0:00:29.679679')]</t>
+          <t>('0:00:19', '0:00:25')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=56.16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=17.965212']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=19.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:28.583470', '0:01:38.974002')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:36.400000', '0:00:44.080000')]</t>
+          <t>('0:00:03.460000', '0:00:15.080000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:34.400000', '0:01:44.480000')]</t>
+          <t>('0:01:01.420000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=3.46</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=94.4']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=61.42</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_39</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min', 'G#:dim7', 'A:min', 'G#:dim7'], ['E:7', 'A:min', 'G#:dim7', 'A:min']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:07.220000'), ('0:01:13', '0:01:22.740000')]</t>
+          <t>('0:00:27.160000', '0:00:38.460000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:21.900000', '0:00:27.820000'), ('0:00:20.480000', '0:00:26.300000')]</t>
+          <t>('0:01:38.700000', '0:01:58.800000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=73.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=27.16</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=21.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=20.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'E']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:02.360000', '0:01:08.900000')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:20.769931', '0:00:26.946439')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=62.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=20.769931']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_56</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:00:21.880000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:00:57.420000', '0:01:00.320000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-56#t=21.88</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=57.42</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'D:min/A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min'], ['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:32.540000', '0:00:43.920000'), ('0:00:37.760000', '0:00:47.420000')]</t>
+          <t>('0:01:36.060000', '0:01:47.420000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:51.760000', '0:02:08.800000'), ('0:00:14.420000', '0:00:49.560000')]</t>
+          <t>('0:00:36.400000', '0:00:44.080000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=32.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=37.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=96.06</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=111.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=14.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:49.440000', '0:02:03.140000')]</t>
+          <t>('0:01:14.120000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
+          <t>('0:00:02.580000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=109.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=74.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=88.86']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=2.58</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:03.744784', '0:00:06.774988')]</t>
+          <t>('0:00:02.560000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.340000')]</t>
+          <t>('0:00:00.421247', '0:00:05.746892')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:50.780000', '0:01:59.340000'), ('0:00:22.060000', '0:00:32.500000')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:43.660000', '0:01:50.880000'), ('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:00:15.260000', '0:00:37.400000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=110.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=22.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=103.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=15.26</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:min', 'A#:7', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['C:maj', 'G/3', 'C:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:34.940000', '0:00:36.860000'), ('0:00:08.260000', '0:00:12.960000'), ('0:00:34.660000', '0:00:36.260000')]</t>
+          <t>('0:01:07.100430', '0:01:15.018435')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:25.940000', '0:00:45.200000'), ('0:00:01.540000', '0:00:06.880000'), ('0:00:52.420000', '0:01:01.260000')]</t>
+          <t>('0:02:37.019000', '0:02:40.636000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=25.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=52.42']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
